--- a/files/Dyskretna_zmienna_losowa.xlsx
+++ b/files/Dyskretna_zmienna_losowa.xlsx
@@ -20,51 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>P(x)</t>
   </si>
   <si>
     <t>sprawdzenie:</t>
   </si>
   <si>
-    <t xml:space="preserve">E(X) = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Var(X) = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD(X) = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skośność(X) = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Nadwyżkowa) Kurtoza(X) = </t>
-  </si>
-  <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>P(x i y)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E(Y) = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Var(Y) = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD(Y) = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skośność(Y) = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Nadwyżkowa) Kurtoza(Y) = </t>
   </si>
   <si>
     <t xml:space="preserve">Kowariancja = </t>
@@ -385,7 +349,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -399,8 +363,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="str">
+        <f>"p("&amp;A1&amp;")"</f>
+        <v>p(x)</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -412,7 +377,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>IF(SUM(B:B)=1,"OK","Prawdopodobieństwa nie sumują się do 1")</f>
@@ -437,8 +402,9 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
+      <c r="D4" s="3" t="str">
+        <f>"E("&amp;UPPER($A$1)&amp;") = "</f>
+        <v xml:space="preserve">E(X) = </v>
       </c>
       <c r="E4" s="6">
         <f>IF(E2="OK", SUMPRODUCT(A:A,B:B),"")</f>
@@ -463,8 +429,9 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
+      <c r="D6" s="3" t="str">
+        <f>"Var("&amp;UPPER($A$1)&amp;") = "</f>
+        <v xml:space="preserve">Var(X) = </v>
       </c>
       <c r="E6" s="6">
         <f t="array" ref="E6">IF($E$2="OK", SUM(IF(NOT(ISNUMBER(A:A)),0,(A:A-$E$4)^2*B:B)),"")</f>
@@ -484,8 +451,9 @@
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="7"/>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3" t="str">
+        <f>"SD("&amp;UPPER($A$1)&amp;") = "</f>
+        <v xml:space="preserve">SD(X) = </v>
       </c>
       <c r="E8" s="6">
         <f>IF(E2="OK", E6^0.5,"")</f>
@@ -500,8 +468,9 @@
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
+      <c r="D10" s="3" t="str">
+        <f>"Skośność("&amp;UPPER($A$1)&amp;") = "</f>
+        <v xml:space="preserve">Skośność(X) = </v>
       </c>
       <c r="E10" s="6">
         <f t="array" ref="E10">IF($E$2="OK", SUM(IF(NOT(ISNUMBER(A:A)),0,((A:A-$E$4)/$E$8)^3*B:B)),"")</f>
@@ -516,8 +485,9 @@
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
+      <c r="D12" s="3" t="str">
+        <f>"[Nadwyżkowa] kurtoza("&amp;UPPER($A$1)&amp;") = "</f>
+        <v xml:space="preserve">[Nadwyżkowa] kurtoza(X) = </v>
       </c>
       <c r="E12" s="6">
         <f t="array" ref="E12">IF($E$2="OK", SUM(IF(NOT(ISNUMBER(A:A)),0,((A:A-$E$4)/$E$8)^4*B:B))-3,"")</f>
@@ -4489,7 +4459,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4508,10 +4478,11 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>9</v>
+      <c r="C1" s="8" t="str">
+        <f>"p("&amp;A1&amp;" i "&amp;B1&amp;")"</f>
+        <v>p(x i y)</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -4530,7 +4501,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="9" t="str">
         <f>IF(SUM($C:$C)=1,"OK","Prawdopodobieństwa nie sumują się do 1")</f>
@@ -4568,16 +4539,18 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
+      <c r="E4" s="3" t="str">
+        <f>"E("&amp;UPPER(A1)&amp;") = "</f>
+        <v xml:space="preserve">E(X) = </v>
       </c>
       <c r="F4" s="10">
         <f>IF($F$2="OK", SUMPRODUCT(A:A,$C:$C),"")</f>
         <v>3.5</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
+      <c r="H4" s="3" t="str">
+        <f>"E("&amp;UPPER($B$1)&amp;") = "</f>
+        <v xml:space="preserve">E(Y) = </v>
       </c>
       <c r="I4" s="10">
         <f>IF($F$2="OK", SUMPRODUCT(B:B,$C:$C),"")</f>
@@ -4612,16 +4585,18 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>4</v>
+      <c r="E6" s="3" t="str">
+        <f>"Var("&amp;UPPER($A$1)&amp;") = "</f>
+        <v xml:space="preserve">Var(X) = </v>
       </c>
       <c r="F6" s="10">
         <f t="array" ref="F6">IF($F$2="OK", SUM(IF(NOT(ISNUMBER(A:A)),0,(A:A-$F$4)^2*$C:$C)),"")</f>
         <v>2.9166666666666665</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
+      <c r="H6" s="3" t="str">
+        <f>"Var("&amp;UPPER($B$1)&amp;") = "</f>
+        <v xml:space="preserve">Var(Y) = </v>
       </c>
       <c r="I6" s="10">
         <f t="array" ref="I6">IF($F$2="OK", SUM(IF(NOT(ISNUMBER(B:B)),0,(B:B-$I$4)^2*$C:$C)),"")</f>
@@ -4649,16 +4624,18 @@
       <c r="A8" s="2"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
+      <c r="E8" s="3" t="str">
+        <f>"SD("&amp;UPPER($A$1)&amp;") = "</f>
+        <v xml:space="preserve">SD(X) = </v>
       </c>
       <c r="F8" s="10">
         <f>IF($F$2="OK", F6^0.5,"")</f>
         <v>1.707825127659933</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
+      <c r="H8" s="3" t="str">
+        <f>"SD("&amp;UPPER($B$1)&amp;") = "</f>
+        <v xml:space="preserve">SD(Y) = </v>
       </c>
       <c r="I8" s="10">
         <f>IF($F$2="OK", I6^0.5,"")</f>
@@ -4679,16 +4656,18 @@
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
+      <c r="E10" s="3" t="str">
+        <f>"Skośność("&amp;UPPER($A$1)&amp;") = "</f>
+        <v xml:space="preserve">Skośność(X) = </v>
       </c>
       <c r="F10" s="10">
         <f t="array" ref="F10">IF($F$2="OK", SUM(IF(NOT(ISNUMBER(A:A)),0,((A:A-F$4)/F$8)^3*$C:$C)),"")</f>
         <v>0</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>13</v>
+      <c r="H10" s="3" t="str">
+        <f>"Skośność("&amp;UPPER($B$1)&amp;") = "</f>
+        <v xml:space="preserve">Skośność(Y) = </v>
       </c>
       <c r="I10" s="10">
         <f t="array" ref="I10">IF($F$2="OK", SUM(IF(NOT(ISNUMBER(B:B)),0,((B:B-I$4)/I$8)^3*$C:$C)),"")</f>
@@ -4709,16 +4688,18 @@
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
+      <c r="E12" s="3" t="str">
+        <f>"[Nadwyżkowa] kurtoza("&amp;UPPER($A$1)&amp;") = "</f>
+        <v xml:space="preserve">[Nadwyżkowa] kurtoza(X) = </v>
       </c>
       <c r="F12" s="10">
         <f t="array" ref="F12">IF($F$2="OK", SUM(IF(NOT(ISNUMBER(A:A)),0,((A:A-F$4)/F$8)^4*$C:$C))-3,"")</f>
         <v>-1.2685714285714289</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>14</v>
+      <c r="H12" s="3" t="str">
+        <f>"[Nadwyżkowa] kurtoza("&amp;UPPER($B$1)&amp;") = "</f>
+        <v xml:space="preserve">[Nadwyżkowa] kurtoza(Y) = </v>
       </c>
       <c r="I12" s="10">
         <f t="array" ref="I12">IF($F$2="OK", SUM(IF(NOT(ISNUMBER(B:B)),0,((B:B-I$4)/I$8)^4*$C:$C))-3,"")</f>
@@ -4747,7 +4728,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="E15" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F15" s="10">
         <f t="array" ref="F15">IF($F$2="OK", SUM(IF(NOT(ISNUMBER(A:A)),0,(A:A-$F$4)*(B:B-$I$4)*$C:$C)),"")</f>
@@ -4771,7 +4752,7 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="E17" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F17" s="10">
         <f>F15/F8/I8</f>
